--- a/src/analysis_examples/circadb/results_jtk/cosinor_10556442_tead1_.xlsx
+++ b/src/analysis_examples/circadb/results_jtk/cosinor_10556442_tead1_.xlsx
@@ -589,35 +589,35 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.2585975983564827, 0.37189525895110215]</t>
+          <t>[0.25797550888140935, 0.3725173484261755]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>1.416444739277267e-10</v>
+        <v>1.728872600637033e-10</v>
       </c>
       <c r="N2" t="n">
-        <v>1.416444739277267e-10</v>
+        <v>1.728872600637033e-10</v>
       </c>
       <c r="O2" t="n">
         <v>-0.6792632764518469</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-0.8679475199106932, -0.49057903299300065]</t>
+          <t>[-0.855368570346771, -0.5031579825569228]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>2.345097038780608e-07</v>
+        <v>7.890327147208609e-08</v>
       </c>
       <c r="R2" t="n">
-        <v>2.345097038780608e-07</v>
+        <v>7.890327147208609e-08</v>
       </c>
       <c r="S2" t="n">
         <v>0.4736793943962096</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.44406353616879735, 0.5032952526236218]</t>
+          <t>[0.4440753353504542, 0.503283453441965]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -630,10 +630,10 @@
         <v>2.717837837837923</v>
       </c>
       <c r="X2" t="n">
-        <v>1.962882882882945</v>
+        <v>2.013213213213272</v>
       </c>
       <c r="Y2" t="n">
-        <v>3.472792792792901</v>
+        <v>3.422462462462573</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadb/results_jtk/cosinor_10556442_tead1_.xlsx
+++ b/src/analysis_examples/circadb/results_jtk/cosinor_10556442_tead1_.xlsx
@@ -589,14 +589,14 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.25797550888140935, 0.3725173484261755]</t>
+          <t>[0.257837394717879, 0.3726554625897059]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>1.728872600637033e-10</v>
+        <v>1.806428340245247e-10</v>
       </c>
       <c r="N2" t="n">
-        <v>1.728872600637033e-10</v>
+        <v>1.806428340245247e-10</v>
       </c>
       <c r="O2" t="n">
         <v>-0.6792632764518469</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.4440753353504542, 0.503283453441965]</t>
+          <t>[0.4440660925726625, 0.5032926962197567]</t>
         </is>
       </c>
       <c r="U2" t="n">
